--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>French</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,8 +107,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -375,227 +390,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C5" s="2">
         <v>43466</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D5" s="3">
         <v>43497</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E5" s="3">
         <v>43525</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F5" s="3">
         <v>43556</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G5" s="3">
         <v>43586</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H5" s="3">
+        <v>43617</v>
+      </c>
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="G6">
         <v>19</v>
       </c>
-      <c r="G4">
-        <f>SUM(B4:F4)</f>
-        <v>88</v>
-      </c>
-      <c r="H4" s="4">
-        <f>G4/$G$9</f>
-        <v>0.10551558752997602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <f>B5+C5+D5+E5+F5</f>
-        <v>80</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H9" si="0">G5/$G$9</f>
-        <v>9.5923261390887291E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
+      <c r="I6">
+        <f>SUM(C6:H6)</f>
+        <v>105</v>
+      </c>
+      <c r="J6" s="4">
+        <f>I6/$I$12</f>
+        <v>9.3833780160857902E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <f>B6+C6+D6+E6+F6</f>
-        <v>77</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>9.2326139088729012E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>19</v>
       </c>
       <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <f>SUM(C7:H7)</f>
+        <v>114</v>
+      </c>
+      <c r="J7" s="4">
+        <f>I7/$I$12</f>
+        <v>0.10187667560321716</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G7">
-        <f>B7+C7+D7+E7+F7</f>
-        <v>84</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>SUM(C8:H8)</f>
+        <v>96</v>
+      </c>
+      <c r="J8" s="4">
+        <f>I8/$I$12</f>
+        <v>8.5790884718498661E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <f>SUM(C9:H9)</f>
+        <v>89</v>
+      </c>
+      <c r="J9" s="4">
+        <f>I9/$I$12</f>
+        <v>7.9535299374441468E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <f>SUM(C10:H10)</f>
+        <v>97</v>
+      </c>
+      <c r="J10" s="4">
+        <f>I10/$I$12</f>
+        <v>8.6684539767649685E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f>SUM(C11:H11)</f>
+        <v>104</v>
+      </c>
+      <c r="J11" s="4">
+        <f>I11/$I$12</f>
+        <v>9.2940125111706878E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C6:C11)</f>
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D6:D11)</f>
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E6:E11)</f>
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F6:F11)</f>
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G6:G11)</f>
+        <v>98</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H6:H11)</f>
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I6:I11,C12:G12)</f>
+        <v>1119</v>
+      </c>
+      <c r="J12" s="4">
+        <f>I12/$I$12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f>MIN(C6:C11)</f>
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f>MIN(D6:D11)</f>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <f>MIN(E6:E11)</f>
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <f>MIN(F6:F11)</f>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f>MIN(G6:G11)</f>
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <f>MIN(H6:H11)</f>
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <f>MIN(I6:I11)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f>MAX(C6:C11)</f>
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <f>MAX(D6:D11)</f>
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <f>MAX(E6:E11)</f>
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f>MAX(F6:F11)</f>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <f>MAX(G6:G11)</f>
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f>MAX(H6:H11)</f>
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <f>MAX(I6:I11)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C6:C11)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(D6:D11)</f>
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(E6:E11)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F6:F11)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(G6:G11)</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(H6:H11)</f>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(I6:I11)</f>
+        <v>100.83333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <f>COUNT(C6:C11)</f>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:I17" si="0">COUNT(D6:D11)</f>
+        <v>6</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.10071942446043165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <f>B8+C8+D8+E8+F8</f>
-        <v>88</v>
-      </c>
-      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.10551558752997602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <f>SUM(B4:B8)</f>
-        <v>84</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C4:C8)</f>
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D4:D8)</f>
-        <v>90</v>
-      </c>
-      <c r="E9">
-        <f>SUM(E4:E8)</f>
-        <v>80</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F4:F8)</f>
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <f>SUM(B9:F9)+SUM(G4:G8)</f>
-        <v>834</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12:H17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Month</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Marks scored (out of 20)</t>
   </si>
   <si>
-    <t>Percent</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   <si>
     <t>French</t>
   </si>
+  <si>
+    <t>Percent obtained in subject</t>
+  </si>
+  <si>
+    <t>Percentage obtained</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +86,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -100,19 +152,468 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,6 +626,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1167849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>364436</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>392308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="WeBWorK - Introduction"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1780762" y="397566"/>
+          <a:ext cx="712304" cy="384025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>392307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="WeBWorK - Introduction"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7967869" y="397565"/>
+          <a:ext cx="712305" cy="384025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,415 +984,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>43466</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>43497</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>43525</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>43556</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>43586</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>43617</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
+      <c r="J5" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>17</v>
       </c>
-      <c r="I6">
-        <f>SUM(C6:H6)</f>
+      <c r="I6" s="18">
+        <f t="shared" ref="I6:I11" si="0">SUM(C6:H6)</f>
         <v>105</v>
       </c>
-      <c r="J6" s="4">
-        <f>I6/$I$12</f>
-        <v>9.3833780160857902E-2</v>
+      <c r="J6" s="23">
+        <f>I6/120</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>17</v>
       </c>
-      <c r="I7">
-        <f>SUM(C7:H7)</f>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="J7" s="4">
-        <f>I7/$I$12</f>
-        <v>0.10187667560321716</v>
+      <c r="J7" s="24">
+        <f t="shared" ref="J7:J11" si="1">I7/120</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>16</v>
       </c>
-      <c r="I8">
-        <f>SUM(C8:H8)</f>
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="J8" s="4">
-        <f>I8/$I$12</f>
-        <v>8.5790884718498661E-2</v>
+      <c r="J8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>12</v>
       </c>
-      <c r="I9">
-        <f>SUM(C9:H9)</f>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J9" s="4">
-        <f>I9/$I$12</f>
-        <v>7.9535299374441468E-2</v>
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>13</v>
       </c>
-      <c r="I10">
-        <f>SUM(C10:H10)</f>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="J10" s="4">
-        <f>I10/$I$12</f>
-        <v>8.6684539767649685E-2</v>
+      <c r="J10" s="24">
+        <f t="shared" si="1"/>
+        <v>0.80833333333333335</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>18</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>16</v>
       </c>
-      <c r="I11">
-        <f>SUM(C11:H11)</f>
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="J11" s="4">
-        <f>I11/$I$12</f>
-        <v>9.2940125111706878E-2</v>
+      <c r="J11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <f>SUM(C6:C11)</f>
+      <c r="C12" s="34">
+        <f t="shared" ref="C12:H12" si="2">SUM(C6:C11)</f>
         <v>104</v>
       </c>
-      <c r="D12">
-        <f>SUM(D6:D11)</f>
+      <c r="D12" s="35">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="E12">
-        <f>SUM(E6:E11)</f>
+      <c r="E12" s="35">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="F12">
-        <f>SUM(F6:F11)</f>
+      <c r="F12" s="35">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G12">
-        <f>SUM(G6:G11)</f>
+      <c r="G12" s="35">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="H12">
-        <f>SUM(H6:H11)</f>
+      <c r="H12" s="36">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="22">
         <f>SUM(I6:I11,C12:G12)</f>
         <v>1119</v>
       </c>
-      <c r="J12" s="4">
-        <f>I12/$I$12</f>
-        <v>1</v>
-      </c>
+      <c r="J12" s="21"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="37">
+        <f>C12/120</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" ref="D13:H13" si="3">D12/120</f>
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="3"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="3"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="3"/>
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:I15" si="4">MIN(C6:C11)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <f>MIN(C6:C11)</f>
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <f>MIN(D6:D11)</f>
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <f>MIN(E6:E11)</f>
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <f>MIN(F6:F11)</f>
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <f>MIN(G6:G11)</f>
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <f>MIN(H6:H11)</f>
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <f>MIN(I6:I11)</f>
-        <v>89</v>
-      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:I16" si="5">MAX(C6:C11)</f>
+        <v>20</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <f>MAX(C6:C11)</f>
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <f>MAX(D6:D11)</f>
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <f>MAX(E6:E11)</f>
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <f>MAX(F6:F11)</f>
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <f>MAX(G6:G11)</f>
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <f>MAX(H6:H11)</f>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:I17" si="6">AVERAGE(C6:C11)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="I15">
-        <f>MAX(I6:I11)</f>
-        <v>114</v>
-      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="6"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="6"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="6"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="6"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>100.83333333333333</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <f>AVERAGE(C6:C11)</f>
-        <v>17.333333333333332</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(D6:D11)</f>
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <f>AVERAGE(E6:E11)</f>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="F16">
-        <f>AVERAGE(F6:F11)</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="G16">
-        <f>AVERAGE(G6:G11)</f>
-        <v>16.333333333333332</v>
-      </c>
-      <c r="H16">
-        <f>AVERAGE(H6:H11)</f>
-        <v>15.166666666666666</v>
-      </c>
-      <c r="I16">
-        <f>AVERAGE(I6:I11)</f>
-        <v>100.83333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
+      <c r="C18" s="3">
         <f>COUNT(C6:C11)</f>
         <v>6</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:I17" si="0">COUNT(D6:D11)</f>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:I18" si="7">COUNT(D6:D11)</f>
         <v>6</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+      <c r="E18" s="3">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
+      <c r="F18" s="3">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="G18" s="3">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="H18" s="3">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="I18" s="17">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C12:H17" formulaRange="1"/>
+    <ignoredError sqref="C14:H18 C12:H12" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Month</t>
-  </si>
   <si>
     <t>English</t>
   </si>
@@ -69,6 +67,9 @@
   </si>
   <si>
     <t>Percentage obtained</t>
+  </si>
+  <si>
+    <t>Subjects</t>
   </si>
 </sst>
 </file>
@@ -582,15 +583,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,6 +602,15 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,6 +627,2288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent obtained in subject</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>French</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>History</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Geography</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maths</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CDA-41EB-97FD-E702B7EB754B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bar Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>French</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>History</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geography</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Science</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CBE1-46F3-AD6B-D296BBCD7C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1352234015"/>
+        <c:axId val="1352231103"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1352234015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1352231103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1352231103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1352234015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,6 +3001,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665104" cy="6283854"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -984,10 +3324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,22 +3345,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>43466</v>
@@ -1038,15 +3381,15 @@
         <v>43617</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>18</v>
@@ -1077,7 +3420,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>20</v>
@@ -1108,7 +3451,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>17</v>
@@ -1139,7 +3482,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>14</v>
@@ -1170,7 +3513,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <v>19</v>
@@ -1201,7 +3544,7 @@
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
         <v>16</v>
@@ -1231,30 +3574,30 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="B12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="31">
         <f t="shared" ref="C12:H12" si="2">SUM(C6:C11)</f>
         <v>104</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="32">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="32">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="32">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="33">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -1266,29 +3609,29 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="37">
+        <v>13</v>
+      </c>
+      <c r="C13" s="34">
         <f>C12/120</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="35">
         <f t="shared" ref="D13:H13" si="3">D12/120</f>
         <v>0.85</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="35">
         <f t="shared" si="3"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="36">
         <f t="shared" si="3"/>
         <v>0.7583333333333333</v>
       </c>
@@ -1308,7 +3651,7 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" ref="C15:I15" si="4">MIN(C6:C11)</f>
@@ -1342,7 +3685,7 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" ref="C16:I16" si="5">MAX(C6:C11)</f>
@@ -1376,7 +3719,7 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="15">
         <f t="shared" ref="C17:I17" si="6">AVERAGE(C6:C11)</f>
@@ -1410,7 +3753,7 @@
     </row>
     <row r="18" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
         <f>COUNT(C6:C11)</f>
@@ -1447,7 +3790,7 @@
     <mergeCell ref="B3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C14:H18 C12:H12" formulaRange="1"/>
   </ignoredErrors>
